--- a/Discharge/RatingCurves/Stn5.xlsx
+++ b/Discharge/RatingCurves/Stn5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2021\Ecuador2021\Discharge\RatingCurves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6712B1-08A2-4780-B975-3DEBFBF4BB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AA75E7-7C39-4662-8711-B7604104F4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{515098AF-24E6-42D4-AB1F-FD9DF5411C44}"/>
+    <workbookView xWindow="140" yWindow="670" windowWidth="14090" windowHeight="9530" xr2:uid="{515098AF-24E6-42D4-AB1F-FD9DF5411C44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -57,43 +57,17 @@
     <t>btw stn 5&amp;6</t>
   </si>
   <si>
-    <t>used 13:15</t>
+    <t>used 13:00</t>
   </si>
   <si>
-    <t>missing Baro data</t>
-  </si>
-  <si>
-    <r>
-      <t>y = 5E-05x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 0.0062x - 0.3502</t>
-    </r>
+    <t>missing Baro data - average July 27 14:45  July 28 14:15   (0.5582355+0.5118179)/2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,14 +88,6 @@
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -296,28 +262,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>43.915089999999999</c:v>
+                  <c:v>0.44459789999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.52422</c:v>
+                  <c:v>0.57524439999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.039499999999997</c:v>
+                  <c:v>0.4703968</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.800890000000003</c:v>
+                  <c:v>0.4680107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.393039999999999</c:v>
+                  <c:v>0.73393330000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.950850000000003</c:v>
+                  <c:v>0.91951210000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56.698250000000002</c:v>
+                  <c:v>0.56698470000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53502669999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>124.0801</c:v>
+                  <c:v>1.2337899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1446,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF96F4BF-E92E-4DEB-9357-8C809523DCE6}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1490,7 +1459,7 @@
         <v>0.53125</v>
       </c>
       <c r="D3" s="4">
-        <v>43.915089999999999</v>
+        <v>0.44459789999999999</v>
       </c>
       <c r="E3">
         <v>4.7079999999999997E-2</v>
@@ -1510,7 +1479,7 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="D4" s="4">
-        <v>57.52422</v>
+        <v>0.57524439999999999</v>
       </c>
       <c r="E4">
         <v>0.16736999999999999</v>
@@ -1527,7 +1496,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D5" s="4">
-        <v>47.039499999999997</v>
+        <v>0.4703968</v>
       </c>
       <c r="E5">
         <v>5.0860000000000002E-2</v>
@@ -1544,7 +1513,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D6" s="4">
-        <v>46.800890000000003</v>
+        <v>0.4680107</v>
       </c>
       <c r="E6">
         <v>6.4549999999999996E-2</v>
@@ -1561,7 +1530,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D7" s="4">
-        <v>73.393039999999999</v>
+        <v>0.73393330000000001</v>
       </c>
       <c r="E7">
         <v>0.21695999999999999</v>
@@ -1578,7 +1547,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D8" s="4">
-        <v>91.950850000000003</v>
+        <v>0.91951210000000005</v>
       </c>
       <c r="E8">
         <v>0.78110000000000002</v>
@@ -1595,7 +1564,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="D9" s="4">
-        <v>56.698250000000002</v>
+        <v>0.56698470000000001</v>
       </c>
       <c r="E9">
         <v>0.13866000000000001</v>
@@ -1611,6 +1580,10 @@
       <c r="C10" s="3">
         <v>0.5625</v>
       </c>
+      <c r="D10">
+        <f>(0.5582355+0.5118179)/2</f>
+        <v>0.53502669999999997</v>
+      </c>
       <c r="E10">
         <v>8.1770999999999996E-2</v>
       </c>
@@ -1629,18 +1602,13 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D11" s="4">
-        <v>124.0801</v>
+        <v>1.2337899999999999</v>
       </c>
       <c r="E11">
         <v>1.1282000000000001</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Discharge/RatingCurves/Stn5.xlsx
+++ b/Discharge/RatingCurves/Stn5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2021\Ecuador2021\Discharge\RatingCurves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Discharge/RatingCurves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AA75E7-7C39-4662-8711-B7604104F4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{D2AA75E7-7C39-4662-8711-B7604104F4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E276AE8E-5B9C-AA4E-A3C7-28F4B7A15F35}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="670" windowWidth="14090" windowHeight="9530" xr2:uid="{515098AF-24E6-42D4-AB1F-FD9DF5411C44}"/>
+    <workbookView xWindow="6380" yWindow="3000" windowWidth="25480" windowHeight="13820" xr2:uid="{515098AF-24E6-42D4-AB1F-FD9DF5411C44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +88,12 @@
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -118,6 +124,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -175,7 +182,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -250,17 +257,62 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-EC"/>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$11</c:f>
+              <c:f>Sheet1!$D$3:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.44459789999999999</c:v>
                 </c:pt>
@@ -287,16 +339,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.2337899999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55664480000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55452369999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$11</c:f>
+              <c:f>Sheet1!$E$3:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>4.7079999999999997E-2</c:v>
                 </c:pt>
@@ -323,6 +381,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.1282000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10291500000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.018999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -400,7 +464,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1672601663"/>
@@ -462,7 +526,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1672600831"/>
@@ -510,7 +574,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-EC"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1415,23 +1479,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF96F4BF-E92E-4DEB-9357-8C809523DCE6}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44358</v>
       </c>
@@ -1468,7 +1532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44386</v>
       </c>
@@ -1485,7 +1549,7 @@
         <v>0.16736999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44391</v>
       </c>
@@ -1502,7 +1566,7 @@
         <v>5.0860000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44393</v>
       </c>
@@ -1519,7 +1583,7 @@
         <v>6.4549999999999996E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44398</v>
       </c>
@@ -1536,7 +1600,7 @@
         <v>0.21695999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44400</v>
       </c>
@@ -1553,7 +1617,7 @@
         <v>0.78110000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44403</v>
       </c>
@@ -1570,7 +1634,7 @@
         <v>0.13866000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44405</v>
       </c>
@@ -1591,7 +1655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44396</v>
       </c>
@@ -1609,6 +1673,40 @@
       </c>
       <c r="F11" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>44740</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.55664480000000005</v>
+      </c>
+      <c r="E13">
+        <v>0.10291500000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>44768</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.55452369999999995</v>
+      </c>
+      <c r="E14">
+        <v>6.018999999999998E-2</v>
       </c>
     </row>
   </sheetData>
